--- a/data/pca/factorExposure/factorExposure_2011-12-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-12-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01075817375400706</v>
+        <v>-0.01155268547660222</v>
       </c>
       <c r="C2">
-        <v>0.03171371536188301</v>
+        <v>0.02616140414742537</v>
       </c>
       <c r="D2">
-        <v>0.02006556341245564</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.02305702792378596</v>
+      </c>
+      <c r="E2">
+        <v>-0.007485633707250887</v>
+      </c>
+      <c r="F2">
+        <v>0.02754579151132321</v>
+      </c>
+      <c r="G2">
+        <v>-0.0004993627887760828</v>
+      </c>
+      <c r="H2">
+        <v>-0.02642040950604599</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.07540067399542491</v>
+        <v>-0.08805406222845885</v>
       </c>
       <c r="C4">
-        <v>0.05527763238688985</v>
+        <v>0.03851619717650845</v>
       </c>
       <c r="D4">
-        <v>0.07736184639321808</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06888057797122416</v>
+      </c>
+      <c r="E4">
+        <v>-0.008387029453594494</v>
+      </c>
+      <c r="F4">
+        <v>0.03906844649258936</v>
+      </c>
+      <c r="G4">
+        <v>0.01792353503156032</v>
+      </c>
+      <c r="H4">
+        <v>0.03953147086956588</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1112696431802453</v>
+        <v>-0.1238330748466901</v>
       </c>
       <c r="C6">
-        <v>0.0540256154450352</v>
+        <v>0.03923358158938867</v>
       </c>
       <c r="D6">
-        <v>0.0003231077387352752</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.008000709314401215</v>
+      </c>
+      <c r="E6">
+        <v>0.02690244880802696</v>
+      </c>
+      <c r="F6">
+        <v>0.05034085612612451</v>
+      </c>
+      <c r="G6">
+        <v>0.02763631117484013</v>
+      </c>
+      <c r="H6">
+        <v>-0.1259699909487526</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.05530300559770881</v>
+        <v>-0.06430471187698625</v>
       </c>
       <c r="C7">
-        <v>0.03210603990957046</v>
+        <v>0.01738049913785445</v>
       </c>
       <c r="D7">
-        <v>0.02995293336046193</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05020971865863005</v>
+      </c>
+      <c r="E7">
+        <v>-0.03138447451160951</v>
+      </c>
+      <c r="F7">
+        <v>0.03938542431766705</v>
+      </c>
+      <c r="G7">
+        <v>-0.03342995049876561</v>
+      </c>
+      <c r="H7">
+        <v>0.02012350612131825</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.03928471139157672</v>
+        <v>-0.04247113137076164</v>
       </c>
       <c r="C8">
-        <v>0.01238132764831791</v>
+        <v>0.008509895608897535</v>
       </c>
       <c r="D8">
-        <v>0.06125801325873834</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02397677532993885</v>
+      </c>
+      <c r="E8">
+        <v>-0.01264284095355665</v>
+      </c>
+      <c r="F8">
+        <v>0.06704859040023303</v>
+      </c>
+      <c r="G8">
+        <v>0.07612950575151817</v>
+      </c>
+      <c r="H8">
+        <v>-0.02045540327035948</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.07034689274505969</v>
+        <v>-0.07985650140478856</v>
       </c>
       <c r="C9">
-        <v>0.04000649946988141</v>
+        <v>0.0244661001935828</v>
       </c>
       <c r="D9">
-        <v>0.07096198139221077</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.06316636358113094</v>
+      </c>
+      <c r="E9">
+        <v>-0.02387362931351211</v>
+      </c>
+      <c r="F9">
+        <v>0.03289656852512574</v>
+      </c>
+      <c r="G9">
+        <v>0.03125648242220332</v>
+      </c>
+      <c r="H9">
+        <v>0.0443005530186153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.02798268124643819</v>
+        <v>-0.04371066925438121</v>
       </c>
       <c r="C10">
-        <v>0.02186512828309831</v>
+        <v>0.05446876726292985</v>
       </c>
       <c r="D10">
-        <v>-0.1742675772369545</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1769659291033854</v>
+      </c>
+      <c r="E10">
+        <v>-0.04038122738052798</v>
+      </c>
+      <c r="F10">
+        <v>0.04982758715162983</v>
+      </c>
+      <c r="G10">
+        <v>-0.03394956210469259</v>
+      </c>
+      <c r="H10">
+        <v>-0.05464566602109902</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.07228582223014109</v>
+        <v>-0.07607583310404632</v>
       </c>
       <c r="C11">
-        <v>0.04538836490945986</v>
+        <v>0.02305989349047426</v>
       </c>
       <c r="D11">
-        <v>0.05097328046027522</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.06463857965942764</v>
+      </c>
+      <c r="E11">
+        <v>0.003723168096994347</v>
+      </c>
+      <c r="F11">
+        <v>0.03008296605621235</v>
+      </c>
+      <c r="G11">
+        <v>0.04467613483115341</v>
+      </c>
+      <c r="H11">
+        <v>0.06896648259625229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.06086841978444145</v>
+        <v>-0.06954634423113447</v>
       </c>
       <c r="C12">
-        <v>0.05332683894622738</v>
+        <v>0.034605452535818</v>
       </c>
       <c r="D12">
-        <v>0.04225073601111189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.04955972470322019</v>
+      </c>
+      <c r="E12">
+        <v>-0.01199396118322327</v>
+      </c>
+      <c r="F12">
+        <v>0.0224343046429423</v>
+      </c>
+      <c r="G12">
+        <v>0.02619320579109673</v>
+      </c>
+      <c r="H12">
+        <v>0.03269165707384115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.06829308350235606</v>
+        <v>-0.06753612913117742</v>
       </c>
       <c r="C13">
-        <v>0.03446051658373143</v>
+        <v>0.01656749528736496</v>
       </c>
       <c r="D13">
-        <v>0.04027441705859515</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.03702709434310426</v>
+      </c>
+      <c r="E13">
+        <v>-0.006122808689392013</v>
+      </c>
+      <c r="F13">
+        <v>0.0295957501724176</v>
+      </c>
+      <c r="G13">
+        <v>0.02916216944357281</v>
+      </c>
+      <c r="H13">
+        <v>0.04586820076970938</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03283932800873891</v>
+        <v>-0.03979671715249437</v>
       </c>
       <c r="C14">
-        <v>0.03455064525908137</v>
+        <v>0.02939865618503002</v>
       </c>
       <c r="D14">
-        <v>-0.009326796027372896</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01346880999916305</v>
+      </c>
+      <c r="E14">
+        <v>-0.02660925718055301</v>
+      </c>
+      <c r="F14">
+        <v>0.01543413852943687</v>
+      </c>
+      <c r="G14">
+        <v>0.02341320633674015</v>
+      </c>
+      <c r="H14">
+        <v>0.05618185469526851</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.04250197541666095</v>
+        <v>-0.04082569935575801</v>
       </c>
       <c r="C15">
-        <v>0.01037675010812585</v>
+        <v>0.002804621259082976</v>
       </c>
       <c r="D15">
-        <v>0.01908805688145341</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.007622918672245935</v>
+      </c>
+      <c r="E15">
+        <v>-0.03690289019758558</v>
+      </c>
+      <c r="F15">
+        <v>0.001967978845278584</v>
+      </c>
+      <c r="G15">
+        <v>0.03478063598386168</v>
+      </c>
+      <c r="H15">
+        <v>0.02329690500668635</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.06135136437399937</v>
+        <v>-0.07116177853582643</v>
       </c>
       <c r="C16">
-        <v>0.04240424239254856</v>
+        <v>0.02542231378990146</v>
       </c>
       <c r="D16">
-        <v>0.04872418601285092</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06306098436792629</v>
+      </c>
+      <c r="E16">
+        <v>-0.00643425773256417</v>
+      </c>
+      <c r="F16">
+        <v>0.02870890365043698</v>
+      </c>
+      <c r="G16">
+        <v>0.02556222799487545</v>
+      </c>
+      <c r="H16">
+        <v>0.05302784479750942</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06456518487910459</v>
+        <v>-0.06331677909188282</v>
       </c>
       <c r="C20">
-        <v>0.02888110812194773</v>
+        <v>0.009957737253559985</v>
       </c>
       <c r="D20">
-        <v>0.04643260882199821</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04014939680946304</v>
+      </c>
+      <c r="E20">
+        <v>-0.009265406851345402</v>
+      </c>
+      <c r="F20">
+        <v>0.02926967915240221</v>
+      </c>
+      <c r="G20">
+        <v>0.02441303662513112</v>
+      </c>
+      <c r="H20">
+        <v>0.04599952522043297</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.03057823740037731</v>
+        <v>-0.02799247534443526</v>
       </c>
       <c r="C21">
-        <v>0.003636580069566074</v>
+        <v>-0.006168874685245517</v>
       </c>
       <c r="D21">
-        <v>0.01707724682359623</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.02108547884538478</v>
+      </c>
+      <c r="E21">
+        <v>-0.0406193399862606</v>
+      </c>
+      <c r="F21">
+        <v>-0.01434327147767203</v>
+      </c>
+      <c r="G21">
+        <v>0.009020137738094175</v>
+      </c>
+      <c r="H21">
+        <v>-0.04821177844639252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.08045221779076277</v>
+        <v>-0.07071224974563711</v>
       </c>
       <c r="C22">
-        <v>0.06149764255880517</v>
+        <v>0.03055557250112797</v>
       </c>
       <c r="D22">
-        <v>0.1454459622655257</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1031160841008596</v>
+      </c>
+      <c r="E22">
+        <v>-0.6108249409822945</v>
+      </c>
+      <c r="F22">
+        <v>-0.06533870482378407</v>
+      </c>
+      <c r="G22">
+        <v>-0.1745194485447777</v>
+      </c>
+      <c r="H22">
+        <v>-0.1372066641690335</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.08147880512490792</v>
+        <v>-0.07162468822459565</v>
       </c>
       <c r="C23">
-        <v>0.06002010523635286</v>
+        <v>0.02907078991626224</v>
       </c>
       <c r="D23">
-        <v>0.1467357844695084</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1042013446537279</v>
+      </c>
+      <c r="E23">
+        <v>-0.6128968179134108</v>
+      </c>
+      <c r="F23">
+        <v>-0.06472091265360101</v>
+      </c>
+      <c r="G23">
+        <v>-0.1684499779695791</v>
+      </c>
+      <c r="H23">
+        <v>-0.1332584351546539</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.07782658424673401</v>
+        <v>-0.08107366292824561</v>
       </c>
       <c r="C24">
-        <v>0.05582429316506372</v>
+        <v>0.03204463175970324</v>
       </c>
       <c r="D24">
-        <v>0.05571675133861122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06268116178899119</v>
+      </c>
+      <c r="E24">
+        <v>-0.01128784871980757</v>
+      </c>
+      <c r="F24">
+        <v>0.0369037609846254</v>
+      </c>
+      <c r="G24">
+        <v>0.0393886169493396</v>
+      </c>
+      <c r="H24">
+        <v>0.03553516487586178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.07509572561223685</v>
+        <v>-0.07953509309120629</v>
       </c>
       <c r="C25">
-        <v>0.0562781958689006</v>
+        <v>0.03499142266724549</v>
       </c>
       <c r="D25">
-        <v>0.0551386684423161</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.05166243480520588</v>
+      </c>
+      <c r="E25">
+        <v>-0.01900071153228691</v>
+      </c>
+      <c r="F25">
+        <v>0.03336964710849018</v>
+      </c>
+      <c r="G25">
+        <v>0.05065438231184609</v>
+      </c>
+      <c r="H25">
+        <v>0.03910802656189738</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.04627623866447861</v>
+        <v>-0.04569281070264059</v>
       </c>
       <c r="C26">
-        <v>0.01547432670461007</v>
+        <v>0.004814479222408182</v>
       </c>
       <c r="D26">
-        <v>0.007956448917310385</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.01967654623893553</v>
+      </c>
+      <c r="E26">
+        <v>-0.04121175458426238</v>
+      </c>
+      <c r="F26">
+        <v>0.03249377809601458</v>
+      </c>
+      <c r="G26">
+        <v>0.01627090861012655</v>
+      </c>
+      <c r="H26">
+        <v>0.04674668657793996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.04463271893690431</v>
+        <v>-0.06846814262772491</v>
       </c>
       <c r="C28">
-        <v>0.06540689913390173</v>
+        <v>0.1113603970466662</v>
       </c>
       <c r="D28">
-        <v>-0.3046752761896763</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2983780961603597</v>
+      </c>
+      <c r="E28">
+        <v>-0.03677463110356802</v>
+      </c>
+      <c r="F28">
+        <v>0.05605279766784623</v>
+      </c>
+      <c r="G28">
+        <v>0.02069614869855826</v>
+      </c>
+      <c r="H28">
+        <v>-0.04929476889218277</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.04525365121536942</v>
+        <v>-0.0472235832955477</v>
       </c>
       <c r="C29">
-        <v>0.03180301621935662</v>
+        <v>0.02324930320767965</v>
       </c>
       <c r="D29">
-        <v>0.001807162328579512</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01286577515577292</v>
+      </c>
+      <c r="E29">
+        <v>-0.0574508926068977</v>
+      </c>
+      <c r="F29">
+        <v>0.01242917679494364</v>
+      </c>
+      <c r="G29">
+        <v>0.01203964582603839</v>
+      </c>
+      <c r="H29">
+        <v>0.0704422919130719</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1288671531325322</v>
+        <v>-0.1271066486558983</v>
       </c>
       <c r="C30">
-        <v>0.09265316597633545</v>
+        <v>0.05839266017981357</v>
       </c>
       <c r="D30">
-        <v>0.1135073152698743</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08110616424673436</v>
+      </c>
+      <c r="E30">
+        <v>-0.05469665091631062</v>
+      </c>
+      <c r="F30">
+        <v>0.01232814692927501</v>
+      </c>
+      <c r="G30">
+        <v>0.06169535937143951</v>
+      </c>
+      <c r="H30">
+        <v>-0.0352835523741744</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.0485563363821731</v>
+        <v>-0.0493695650407549</v>
       </c>
       <c r="C31">
-        <v>0.02424703793647851</v>
+        <v>0.0107511123480021</v>
       </c>
       <c r="D31">
-        <v>0.01816262957287629</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.0340066134442038</v>
+      </c>
+      <c r="E31">
+        <v>-0.02518054193317229</v>
+      </c>
+      <c r="F31">
+        <v>0.007406254967124048</v>
+      </c>
+      <c r="G31">
+        <v>0.001517546135989771</v>
+      </c>
+      <c r="H31">
+        <v>0.0699661733256389</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.03702199128977838</v>
+        <v>-0.03953899739407582</v>
       </c>
       <c r="C32">
-        <v>0.02376860788505808</v>
+        <v>0.02186803013136442</v>
       </c>
       <c r="D32">
-        <v>0.02572064359636851</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.01033799579678274</v>
+      </c>
+      <c r="E32">
+        <v>-0.0521628908580018</v>
+      </c>
+      <c r="F32">
+        <v>-0.005156222714348073</v>
+      </c>
+      <c r="G32">
+        <v>0.03862160935581606</v>
+      </c>
+      <c r="H32">
+        <v>0.02605329356997632</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.0872989964432631</v>
+        <v>-0.09461607085356341</v>
       </c>
       <c r="C33">
-        <v>0.04811122490678308</v>
+        <v>0.02585640611481084</v>
       </c>
       <c r="D33">
-        <v>0.04587153320810471</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.04873189621302549</v>
+      </c>
+      <c r="E33">
+        <v>-0.01450133260904709</v>
+      </c>
+      <c r="F33">
+        <v>0.00327909495247154</v>
+      </c>
+      <c r="G33">
+        <v>0.01661366844471416</v>
+      </c>
+      <c r="H33">
+        <v>0.06670426728213824</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.05959836527579217</v>
+        <v>-0.06498714680241892</v>
       </c>
       <c r="C34">
-        <v>0.02637855533276074</v>
+        <v>0.009608698949550635</v>
       </c>
       <c r="D34">
-        <v>0.04587925235522238</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.04784248034856155</v>
+      </c>
+      <c r="E34">
+        <v>-0.007742172660025207</v>
+      </c>
+      <c r="F34">
+        <v>0.02403781832506997</v>
+      </c>
+      <c r="G34">
+        <v>0.03154791153209828</v>
+      </c>
+      <c r="H34">
+        <v>0.04467694654616521</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.03744491321681652</v>
+        <v>-0.03836330946635814</v>
       </c>
       <c r="C35">
-        <v>0.01190256786497176</v>
+        <v>0.004946191511034863</v>
       </c>
       <c r="D35">
-        <v>0.01994950646216535</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01623020053034829</v>
+      </c>
+      <c r="E35">
+        <v>-0.02329193471754136</v>
+      </c>
+      <c r="F35">
+        <v>-0.01800139943864346</v>
+      </c>
+      <c r="G35">
+        <v>-0.003905182706002281</v>
+      </c>
+      <c r="H35">
+        <v>0.03434819126504842</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02436644656464816</v>
+        <v>-0.02876933082331237</v>
       </c>
       <c r="C36">
-        <v>0.01992772049785738</v>
+        <v>0.01544418556679729</v>
       </c>
       <c r="D36">
-        <v>0.01992661483817396</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.0178046741358714</v>
+      </c>
+      <c r="E36">
+        <v>-0.03027471921501667</v>
+      </c>
+      <c r="F36">
+        <v>0.03004949990794861</v>
+      </c>
+      <c r="G36">
+        <v>0.007665190139046898</v>
+      </c>
+      <c r="H36">
+        <v>0.0499346749697799</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.04601781457971507</v>
+        <v>-0.04633834420337801</v>
       </c>
       <c r="C38">
-        <v>0.004825526785097834</v>
+        <v>-0.004021490256439515</v>
       </c>
       <c r="D38">
-        <v>0.01490706724351313</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0191498437173605</v>
+      </c>
+      <c r="E38">
+        <v>-0.04881330019123614</v>
+      </c>
+      <c r="F38">
+        <v>-0.0008029886598974128</v>
+      </c>
+      <c r="G38">
+        <v>0.007917571920324294</v>
+      </c>
+      <c r="H38">
+        <v>0.02304047689755764</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.08984331190000029</v>
+        <v>-0.09978004797877341</v>
       </c>
       <c r="C39">
-        <v>0.06851523832067559</v>
+        <v>0.04512990873777484</v>
       </c>
       <c r="D39">
-        <v>0.061326005500026</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.06933958669708278</v>
+      </c>
+      <c r="E39">
+        <v>0.0001782934961255559</v>
+      </c>
+      <c r="F39">
+        <v>-0.001636653808117728</v>
+      </c>
+      <c r="G39">
+        <v>0.04491956615335926</v>
+      </c>
+      <c r="H39">
+        <v>0.02589941561620456</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.08011931625020059</v>
+        <v>-0.06215763927224176</v>
       </c>
       <c r="C40">
-        <v>0.03609797596041157</v>
+        <v>0.004043681356117114</v>
       </c>
       <c r="D40">
-        <v>0.0129596757027082</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03491829245632738</v>
+      </c>
+      <c r="E40">
+        <v>-0.0335663003476023</v>
+      </c>
+      <c r="F40">
+        <v>-0.03660035177677224</v>
+      </c>
+      <c r="G40">
+        <v>0.04713040156102782</v>
+      </c>
+      <c r="H40">
+        <v>-0.07459778768500788</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.04557726764850319</v>
+        <v>-0.04687649939092959</v>
       </c>
       <c r="C41">
-        <v>0.01245175493889211</v>
+        <v>0.0004773513254134517</v>
       </c>
       <c r="D41">
-        <v>0.0347095177722131</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.03123475337991475</v>
+      </c>
+      <c r="E41">
+        <v>-0.004163846830531419</v>
+      </c>
+      <c r="F41">
+        <v>-0.01458747355483183</v>
+      </c>
+      <c r="G41">
+        <v>0.01094352801147335</v>
+      </c>
+      <c r="H41">
+        <v>0.02733672830112354</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.05387025037214594</v>
+        <v>-0.06052894596905684</v>
       </c>
       <c r="C43">
-        <v>0.02843802627421739</v>
+        <v>0.01733175732292573</v>
       </c>
       <c r="D43">
-        <v>0.01040765213891981</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.0280575436930883</v>
+      </c>
+      <c r="E43">
+        <v>-0.02256033618489476</v>
+      </c>
+      <c r="F43">
+        <v>0.01589782961487048</v>
+      </c>
+      <c r="G43">
+        <v>-0.00563726025538171</v>
+      </c>
+      <c r="H43">
+        <v>0.0646275157846021</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.09612535593247724</v>
+        <v>-0.09350038139515428</v>
       </c>
       <c r="C44">
-        <v>0.08677737041679727</v>
+        <v>0.05536389845316343</v>
       </c>
       <c r="D44">
-        <v>0.07168195173547391</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.07247022749749996</v>
+      </c>
+      <c r="E44">
+        <v>-0.0598025350127225</v>
+      </c>
+      <c r="F44">
+        <v>0.09003595400976661</v>
+      </c>
+      <c r="G44">
+        <v>0.06956105633684122</v>
+      </c>
+      <c r="H44">
+        <v>0.08077193540679649</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02709458854508462</v>
+        <v>-0.0350613486449849</v>
       </c>
       <c r="C46">
-        <v>0.01761004094910465</v>
+        <v>0.01163614975956033</v>
       </c>
       <c r="D46">
-        <v>0.03144600309145632</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.03649025213197068</v>
+      </c>
+      <c r="E46">
+        <v>-0.03133603177947898</v>
+      </c>
+      <c r="F46">
+        <v>0.01637962153664614</v>
+      </c>
+      <c r="G46">
+        <v>0.005648638645152046</v>
+      </c>
+      <c r="H46">
+        <v>0.02211644365205756</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.0352173379650791</v>
+        <v>-0.04149682999750372</v>
       </c>
       <c r="C47">
-        <v>0.02474299040498693</v>
+        <v>0.01958018221328591</v>
       </c>
       <c r="D47">
-        <v>-0.002653401720555369</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.006270428279539987</v>
+      </c>
+      <c r="E47">
+        <v>-0.03930217962165967</v>
+      </c>
+      <c r="F47">
+        <v>-0.00951985286864588</v>
+      </c>
+      <c r="G47">
+        <v>-0.03053221524944884</v>
+      </c>
+      <c r="H47">
+        <v>0.02893759265044761</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.03712848906207802</v>
+        <v>-0.04035577425150476</v>
       </c>
       <c r="C48">
-        <v>0.02453497754373289</v>
+        <v>0.01503293046558719</v>
       </c>
       <c r="D48">
-        <v>0.02729496516608183</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.0198987646408005</v>
+      </c>
+      <c r="E48">
+        <v>-0.03890193914586783</v>
+      </c>
+      <c r="F48">
+        <v>0.0107194468462959</v>
+      </c>
+      <c r="G48">
+        <v>0.01917580147236697</v>
+      </c>
+      <c r="H48">
+        <v>0.02682406832635784</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1629667480932417</v>
+        <v>-0.1991598924255059</v>
       </c>
       <c r="C49">
-        <v>0.05125658775943465</v>
+        <v>0.03527970959745597</v>
       </c>
       <c r="D49">
-        <v>-0.0005830509518083566</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.02323937613829514</v>
+      </c>
+      <c r="E49">
+        <v>0.1671868269910556</v>
+      </c>
+      <c r="F49">
+        <v>0.04133217065457739</v>
+      </c>
+      <c r="G49">
+        <v>-0.1619080912829021</v>
+      </c>
+      <c r="H49">
+        <v>-0.2213338335399453</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.04284342991890128</v>
+        <v>-0.04523830084419365</v>
       </c>
       <c r="C50">
-        <v>0.02575245473600308</v>
+        <v>0.0139322835377287</v>
       </c>
       <c r="D50">
-        <v>0.03652070723988902</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.03998610396731222</v>
+      </c>
+      <c r="E50">
+        <v>-0.03655683463134852</v>
+      </c>
+      <c r="F50">
+        <v>0.005062552832345116</v>
+      </c>
+      <c r="G50">
+        <v>0.005409669649244581</v>
+      </c>
+      <c r="H50">
+        <v>0.07997588225200115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02856246223664472</v>
+        <v>-0.03467459112393755</v>
       </c>
       <c r="C51">
-        <v>0.01193178312064457</v>
+        <v>0.007716285476560793</v>
       </c>
       <c r="D51">
-        <v>-0.001695704047562845</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0003426381864264923</v>
+      </c>
+      <c r="E51">
+        <v>-0.01156527089096776</v>
+      </c>
+      <c r="F51">
+        <v>0.008606908791783489</v>
+      </c>
+      <c r="G51">
+        <v>-0.01599254087696362</v>
+      </c>
+      <c r="H51">
+        <v>-0.01751380313076847</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1550592780350636</v>
+        <v>-0.1603905982238694</v>
       </c>
       <c r="C53">
-        <v>0.07469155287459277</v>
+        <v>0.04600972567150364</v>
       </c>
       <c r="D53">
-        <v>-0.005085077120348895</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.02547785324808171</v>
+      </c>
+      <c r="E53">
+        <v>0.03173979947224092</v>
+      </c>
+      <c r="F53">
+        <v>0.0007023613587125993</v>
+      </c>
+      <c r="G53">
+        <v>0.02991860282674354</v>
+      </c>
+      <c r="H53">
+        <v>0.1955193461809988</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.05875539974471228</v>
+        <v>-0.05812106441678819</v>
       </c>
       <c r="C54">
-        <v>0.02409962452014005</v>
+        <v>0.01291519111320407</v>
       </c>
       <c r="D54">
-        <v>0.01522064665991031</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.01456496373114452</v>
+      </c>
+      <c r="E54">
+        <v>-0.05280898789609257</v>
+      </c>
+      <c r="F54">
+        <v>0.01198917171270657</v>
+      </c>
+      <c r="G54">
+        <v>0.05857440657804736</v>
+      </c>
+      <c r="H54">
+        <v>0.03526785933270614</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1035449400857653</v>
+        <v>-0.1038522215459395</v>
       </c>
       <c r="C55">
-        <v>0.05412168824069254</v>
+        <v>0.03197943028173948</v>
       </c>
       <c r="D55">
-        <v>0.01404943923147531</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.02933716101336684</v>
+      </c>
+      <c r="E55">
+        <v>-0.002594508335316233</v>
+      </c>
+      <c r="F55">
+        <v>0.01540701231973658</v>
+      </c>
+      <c r="G55">
+        <v>0.03395830719230016</v>
+      </c>
+      <c r="H55">
+        <v>0.1558784086887386</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1496465725516679</v>
+        <v>-0.156163846140915</v>
       </c>
       <c r="C56">
-        <v>0.08097283110475806</v>
+        <v>0.04920819724110941</v>
       </c>
       <c r="D56">
-        <v>0.001078875438181204</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04105040829301495</v>
+      </c>
+      <c r="E56">
+        <v>0.01416611305736515</v>
+      </c>
+      <c r="F56">
+        <v>0.02455534126015238</v>
+      </c>
+      <c r="G56">
+        <v>0.03424525745019553</v>
+      </c>
+      <c r="H56">
+        <v>0.1986716929314036</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1316604586939343</v>
+        <v>-0.1001456712256137</v>
       </c>
       <c r="C58">
-        <v>-0.01170229338317402</v>
+        <v>-0.05489801106387179</v>
       </c>
       <c r="D58">
-        <v>0.04826168177350153</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.03315378233163047</v>
+      </c>
+      <c r="E58">
+        <v>-0.1224072044203047</v>
+      </c>
+      <c r="F58">
+        <v>0.02865471493103847</v>
+      </c>
+      <c r="G58">
+        <v>-0.09781888346836563</v>
+      </c>
+      <c r="H58">
+        <v>-0.141193156146337</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1180120151944751</v>
+        <v>-0.1443547181942069</v>
       </c>
       <c r="C59">
-        <v>0.06988252936021153</v>
+        <v>0.1132741903436274</v>
       </c>
       <c r="D59">
-        <v>-0.3983969978359584</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.3551392147740018</v>
+      </c>
+      <c r="E59">
+        <v>-0.03304120820906562</v>
+      </c>
+      <c r="F59">
+        <v>0.002283406010955987</v>
+      </c>
+      <c r="G59">
+        <v>-0.003787855163283224</v>
+      </c>
+      <c r="H59">
+        <v>0.01135966648023404</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2086820735633433</v>
+        <v>-0.239578750837128</v>
       </c>
       <c r="C60">
-        <v>0.09180698557962534</v>
+        <v>0.06035667035419024</v>
       </c>
       <c r="D60">
-        <v>0.01050999223216077</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.0430406016271342</v>
+      </c>
+      <c r="E60">
+        <v>0.1140443759548843</v>
+      </c>
+      <c r="F60">
+        <v>0.04646708435194979</v>
+      </c>
+      <c r="G60">
+        <v>-0.03987130257644812</v>
+      </c>
+      <c r="H60">
+        <v>-0.1451884950992053</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.08095964882070283</v>
+        <v>-0.08619970615796933</v>
       </c>
       <c r="C61">
-        <v>0.04553499867193251</v>
+        <v>0.02751563086917435</v>
       </c>
       <c r="D61">
-        <v>0.03302231736047494</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04357864345855463</v>
+      </c>
+      <c r="E61">
+        <v>-0.005940247625142528</v>
+      </c>
+      <c r="F61">
+        <v>0.005672022532763266</v>
+      </c>
+      <c r="G61">
+        <v>0.03287443041631976</v>
+      </c>
+      <c r="H61">
+        <v>0.05998276218569959</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.1332043020987316</v>
+        <v>-0.1364605442593096</v>
       </c>
       <c r="C62">
-        <v>0.0601406942729836</v>
+        <v>0.02966095508729566</v>
       </c>
       <c r="D62">
-        <v>0.000725187130154898</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.04270999870903197</v>
+      </c>
+      <c r="E62">
+        <v>0.04772709114714198</v>
+      </c>
+      <c r="F62">
+        <v>-0.006099031149672596</v>
+      </c>
+      <c r="G62">
+        <v>0.06661675829034409</v>
+      </c>
+      <c r="H62">
+        <v>0.1936829215891595</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.05247397901009459</v>
+        <v>-0.05131352891564379</v>
       </c>
       <c r="C63">
-        <v>0.02554236550968525</v>
+        <v>0.01499455856881495</v>
       </c>
       <c r="D63">
-        <v>0.02349739253629167</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.0205640688057289</v>
+      </c>
+      <c r="E63">
+        <v>-0.04575528270884827</v>
+      </c>
+      <c r="F63">
+        <v>-0.003421691902313976</v>
+      </c>
+      <c r="G63">
+        <v>0.02745564803783193</v>
+      </c>
+      <c r="H63">
+        <v>0.03488607263552981</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1061748212179439</v>
+        <v>-0.109022149806162</v>
       </c>
       <c r="C64">
-        <v>0.03574620851944407</v>
+        <v>0.01739299195468328</v>
       </c>
       <c r="D64">
-        <v>0.02196064287327698</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.02838669245813753</v>
+      </c>
+      <c r="E64">
+        <v>-0.03631717875668305</v>
+      </c>
+      <c r="F64">
+        <v>0.04152877615506895</v>
+      </c>
+      <c r="G64">
+        <v>0.06220308380374544</v>
+      </c>
+      <c r="H64">
+        <v>0.02382396814345779</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1270331106877424</v>
+        <v>-0.1287838850743691</v>
       </c>
       <c r="C65">
-        <v>0.05752137321739589</v>
+        <v>0.03961321045221646</v>
       </c>
       <c r="D65">
-        <v>0.007384082063885133</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01017417147473208</v>
+      </c>
+      <c r="E65">
+        <v>0.01097617027402855</v>
+      </c>
+      <c r="F65">
+        <v>0.04455280386941942</v>
+      </c>
+      <c r="G65">
+        <v>0.06120616058558188</v>
+      </c>
+      <c r="H65">
+        <v>-0.1575629702854562</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1485723879078555</v>
+        <v>-0.1521811339520671</v>
       </c>
       <c r="C66">
-        <v>0.07139813070337546</v>
+        <v>0.03413386310720308</v>
       </c>
       <c r="D66">
-        <v>0.09551071328450582</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1011866473474293</v>
+      </c>
+      <c r="E66">
+        <v>0.02745566025019319</v>
+      </c>
+      <c r="F66">
+        <v>-0.002871806867995026</v>
+      </c>
+      <c r="G66">
+        <v>0.07026384245849206</v>
+      </c>
+      <c r="H66">
+        <v>0.08616871403205793</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.07677610949966801</v>
+        <v>-0.08612425616885176</v>
       </c>
       <c r="C67">
-        <v>0.01164875481708096</v>
+        <v>-2.989048733592605e-05</v>
       </c>
       <c r="D67">
-        <v>0.01967277632352481</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03089254095909106</v>
+      </c>
+      <c r="E67">
+        <v>-0.02074278978865728</v>
+      </c>
+      <c r="F67">
+        <v>0.0153844022968246</v>
+      </c>
+      <c r="G67">
+        <v>-0.008029200982264196</v>
+      </c>
+      <c r="H67">
+        <v>0.02161884220339228</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.0536164888719482</v>
+        <v>-0.06240239628970964</v>
       </c>
       <c r="C68">
-        <v>0.04536060559646132</v>
+        <v>0.08286141395939797</v>
       </c>
       <c r="D68">
-        <v>-0.2610521758152693</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2646118867720303</v>
+      </c>
+      <c r="E68">
+        <v>-0.04617085092329819</v>
+      </c>
+      <c r="F68">
+        <v>0.01629768369432755</v>
+      </c>
+      <c r="G68">
+        <v>0.001812561665093571</v>
+      </c>
+      <c r="H68">
+        <v>0.0185590450777499</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05441853703863862</v>
+        <v>-0.05334351399128261</v>
       </c>
       <c r="C69">
-        <v>0.01908959914135806</v>
+        <v>0.005333554625916772</v>
       </c>
       <c r="D69">
-        <v>0.02107335784867004</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01913596715170089</v>
+      </c>
+      <c r="E69">
+        <v>-0.02375318125425556</v>
+      </c>
+      <c r="F69">
+        <v>-0.0142169761767908</v>
+      </c>
+      <c r="G69">
+        <v>0.001983759397275798</v>
+      </c>
+      <c r="H69">
+        <v>0.04574074085935342</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.003002772652271841</v>
+        <v>-0.02756149738466904</v>
       </c>
       <c r="C70">
-        <v>-0.006821959711879432</v>
+        <v>-0.00215816361689267</v>
       </c>
       <c r="D70">
-        <v>-0.01283576719408349</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.007642998286117359</v>
+      </c>
+      <c r="E70">
+        <v>0.02219458920934638</v>
+      </c>
+      <c r="F70">
+        <v>-0.008201775318982916</v>
+      </c>
+      <c r="G70">
+        <v>-0.02512078510483507</v>
+      </c>
+      <c r="H70">
+        <v>-0.03439081515975695</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.05331465759164924</v>
+        <v>-0.06853944833684983</v>
       </c>
       <c r="C71">
-        <v>0.04637306666697293</v>
+        <v>0.09376701328237162</v>
       </c>
       <c r="D71">
-        <v>-0.2960367884976944</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2934202439559795</v>
+      </c>
+      <c r="E71">
+        <v>-0.04527193699110445</v>
+      </c>
+      <c r="F71">
+        <v>0.04347022359239423</v>
+      </c>
+      <c r="G71">
+        <v>0.004523877540502564</v>
+      </c>
+      <c r="H71">
+        <v>0.01202265164781235</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.142070335309423</v>
+        <v>-0.1443784257991748</v>
       </c>
       <c r="C72">
-        <v>0.06378030197354927</v>
+        <v>0.03559193730250763</v>
       </c>
       <c r="D72">
-        <v>-0.009219644716278291</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.002502041471557817</v>
+      </c>
+      <c r="E72">
+        <v>0.0507268932947889</v>
+      </c>
+      <c r="F72">
+        <v>-0.1583984579085463</v>
+      </c>
+      <c r="G72">
+        <v>0.1134047371836491</v>
+      </c>
+      <c r="H72">
+        <v>-0.01016819237276426</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2858151606490347</v>
+        <v>-0.2895890553489634</v>
       </c>
       <c r="C73">
-        <v>0.09414219695131193</v>
+        <v>0.02448585963482926</v>
       </c>
       <c r="D73">
-        <v>0.03734406626040148</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.09458130010697297</v>
+      </c>
+      <c r="E73">
+        <v>0.2573166911187694</v>
+      </c>
+      <c r="F73">
+        <v>0.07790173697380176</v>
+      </c>
+      <c r="G73">
+        <v>-0.2895618675334615</v>
+      </c>
+      <c r="H73">
+        <v>-0.3786012696066051</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.08367058029524219</v>
+        <v>-0.09193233245579058</v>
       </c>
       <c r="C74">
-        <v>0.07502370088866822</v>
+        <v>0.05451854522400579</v>
       </c>
       <c r="D74">
-        <v>0.003367752950875443</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03825031268227314</v>
+      </c>
+      <c r="E74">
+        <v>0.004034377711779584</v>
+      </c>
+      <c r="F74">
+        <v>1.531451681107262e-06</v>
+      </c>
+      <c r="G74">
+        <v>-0.01424529824807686</v>
+      </c>
+      <c r="H74">
+        <v>0.1341184196025679</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.1003078804164908</v>
+        <v>-0.1029830803235676</v>
       </c>
       <c r="C75">
-        <v>0.04756362895282361</v>
+        <v>0.02116759561077148</v>
       </c>
       <c r="D75">
-        <v>0.01431586819772731</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.02500380188736299</v>
+      </c>
+      <c r="E75">
+        <v>0.0009093173984378177</v>
+      </c>
+      <c r="F75">
+        <v>-0.0007014262329294796</v>
+      </c>
+      <c r="G75">
+        <v>-0.001489248447128922</v>
+      </c>
+      <c r="H75">
+        <v>0.09721718813750503</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1321127913508641</v>
+        <v>-0.1411246486952455</v>
       </c>
       <c r="C76">
-        <v>0.07629333410253178</v>
+        <v>0.04857952046530067</v>
       </c>
       <c r="D76">
-        <v>0.02515115729970107</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05310433340471223</v>
+      </c>
+      <c r="E76">
+        <v>-0.0159107130091296</v>
+      </c>
+      <c r="F76">
+        <v>0.03405670881918439</v>
+      </c>
+      <c r="G76">
+        <v>0.04607658336074219</v>
+      </c>
+      <c r="H76">
+        <v>0.2180082224215203</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1181797794406682</v>
+        <v>-0.1025638897690809</v>
       </c>
       <c r="C77">
-        <v>0.02509318040065786</v>
+        <v>-0.009628040266002346</v>
       </c>
       <c r="D77">
-        <v>0.08112649435551447</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.04216257573738178</v>
+      </c>
+      <c r="E77">
+        <v>-0.0464272264241947</v>
+      </c>
+      <c r="F77">
+        <v>0.05554007967550477</v>
+      </c>
+      <c r="G77">
+        <v>0.7688377623969603</v>
+      </c>
+      <c r="H77">
+        <v>-0.4151217610923775</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.1077028217342237</v>
+        <v>-0.1523572833882983</v>
       </c>
       <c r="C78">
-        <v>0.04172451837945704</v>
+        <v>0.03630057948597397</v>
       </c>
       <c r="D78">
-        <v>0.09233691267809312</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07981686251698515</v>
+      </c>
+      <c r="E78">
+        <v>-0.05382797039503735</v>
+      </c>
+      <c r="F78">
+        <v>0.05368627482658932</v>
+      </c>
+      <c r="G78">
+        <v>0.04017715578380311</v>
+      </c>
+      <c r="H78">
+        <v>-0.07328735648792147</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1459973094789502</v>
+        <v>-0.1472292143654075</v>
       </c>
       <c r="C79">
-        <v>0.06888549586520895</v>
+        <v>0.03408497957989515</v>
       </c>
       <c r="D79">
-        <v>0.01945493597118973</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.03926545378997855</v>
+      </c>
+      <c r="E79">
+        <v>0.01485553565203337</v>
+      </c>
+      <c r="F79">
+        <v>0.01721199104791421</v>
+      </c>
+      <c r="G79">
+        <v>0.03766405591223593</v>
+      </c>
+      <c r="H79">
+        <v>0.1540870558332078</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.04150575744929343</v>
+        <v>-0.04236281630640422</v>
       </c>
       <c r="C80">
-        <v>0.01940178412281723</v>
+        <v>0.0112138888148941</v>
       </c>
       <c r="D80">
-        <v>0.03148603898679665</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01498768940102269</v>
+      </c>
+      <c r="E80">
+        <v>0.03936807354393736</v>
+      </c>
+      <c r="F80">
+        <v>0.003810584444052718</v>
+      </c>
+      <c r="G80">
+        <v>-0.01700536466296942</v>
+      </c>
+      <c r="H80">
+        <v>0.04352500713932972</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1247955259021222</v>
+        <v>-0.1263031401864987</v>
       </c>
       <c r="C81">
-        <v>0.05998316683792026</v>
+        <v>0.03298221300204539</v>
       </c>
       <c r="D81">
-        <v>0.02530634074090363</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.02725323890287665</v>
+      </c>
+      <c r="E81">
+        <v>-0.008851864565101441</v>
+      </c>
+      <c r="F81">
+        <v>0.0144603194101648</v>
+      </c>
+      <c r="G81">
+        <v>-0.001693072381739709</v>
+      </c>
+      <c r="H81">
+        <v>0.1445093663721759</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1337602308620567</v>
+        <v>-0.1308048203873979</v>
       </c>
       <c r="C82">
-        <v>0.06764458222917454</v>
+        <v>0.0380989731528584</v>
       </c>
       <c r="D82">
-        <v>0.00104245252197678</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.03595932677071313</v>
+      </c>
+      <c r="E82">
+        <v>0.02113484815128073</v>
+      </c>
+      <c r="F82">
+        <v>0.04363728871486827</v>
+      </c>
+      <c r="G82">
+        <v>0.0293108301260984</v>
+      </c>
+      <c r="H82">
+        <v>0.2127918169387925</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.06299640332333821</v>
+        <v>-0.07857821345619273</v>
       </c>
       <c r="C83">
-        <v>-0.03110110647307145</v>
+        <v>-0.04019365002084162</v>
       </c>
       <c r="D83">
-        <v>0.0232266969675271</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.01996395682055739</v>
+      </c>
+      <c r="E83">
+        <v>-0.02239362008025563</v>
+      </c>
+      <c r="F83">
+        <v>0.03208210342472345</v>
+      </c>
+      <c r="G83">
+        <v>-0.04337199538702229</v>
+      </c>
+      <c r="H83">
+        <v>-0.02541178120541871</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.02709435489292095</v>
+        <v>-0.0334105262281704</v>
       </c>
       <c r="C84">
-        <v>0.02482780862584029</v>
+        <v>0.01447175309497814</v>
       </c>
       <c r="D84">
-        <v>0.03922444876379241</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.04044523259241927</v>
+      </c>
+      <c r="E84">
+        <v>-0.01764850837435912</v>
+      </c>
+      <c r="F84">
+        <v>-0.03708742458582365</v>
+      </c>
+      <c r="G84">
+        <v>-0.0342272623332574</v>
+      </c>
+      <c r="H84">
+        <v>0.04103039044180928</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1196467825864828</v>
+        <v>-0.1227573820296222</v>
       </c>
       <c r="C85">
-        <v>0.0405122307488269</v>
+        <v>0.01521608749217848</v>
       </c>
       <c r="D85">
-        <v>0.04881533989576002</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.03763225786917287</v>
+      </c>
+      <c r="E85">
+        <v>-0.01743300370398655</v>
+      </c>
+      <c r="F85">
+        <v>0.0352754580530683</v>
+      </c>
+      <c r="G85">
+        <v>0.0014775475763689</v>
+      </c>
+      <c r="H85">
+        <v>0.1416893403878823</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.05272724453833248</v>
+        <v>-0.05608227419971269</v>
       </c>
       <c r="C86">
-        <v>0.02469618786936669</v>
+        <v>0.009852229951689299</v>
       </c>
       <c r="D86">
-        <v>0.06347807180113889</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.03641702277483552</v>
+      </c>
+      <c r="E86">
+        <v>-0.03936406229335062</v>
+      </c>
+      <c r="F86">
+        <v>0.0207651673518295</v>
+      </c>
+      <c r="G86">
+        <v>-0.04902731068879682</v>
+      </c>
+      <c r="H86">
+        <v>-0.03713254606700833</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.1232509397657132</v>
+        <v>-0.1253744463362131</v>
       </c>
       <c r="C87">
-        <v>0.07309882016064741</v>
+        <v>0.03501997146456534</v>
       </c>
       <c r="D87">
-        <v>0.06741504904676417</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.06855760114118158</v>
+      </c>
+      <c r="E87">
+        <v>-0.01910858315782394</v>
+      </c>
+      <c r="F87">
+        <v>0.01577806201361492</v>
+      </c>
+      <c r="G87">
+        <v>0.1441875053931468</v>
+      </c>
+      <c r="H87">
+        <v>-0.08771879772881118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05374300388767622</v>
+        <v>-0.06238767529592504</v>
       </c>
       <c r="C88">
-        <v>0.0304740419273879</v>
+        <v>0.019441959623487</v>
       </c>
       <c r="D88">
-        <v>0.02360296384649455</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.03884865664289082</v>
+      </c>
+      <c r="E88">
+        <v>-0.007388003239621514</v>
+      </c>
+      <c r="F88">
+        <v>0.01909597151013907</v>
+      </c>
+      <c r="G88">
+        <v>0.01716885541405179</v>
+      </c>
+      <c r="H88">
+        <v>0.04154423713261434</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08251797206051995</v>
+        <v>-0.1051497633569549</v>
       </c>
       <c r="C89">
-        <v>0.06651972552965592</v>
+        <v>0.1189036463409558</v>
       </c>
       <c r="D89">
-        <v>-0.3223346308512671</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.3403419050625399</v>
+      </c>
+      <c r="E89">
+        <v>-0.06447852747004405</v>
+      </c>
+      <c r="F89">
+        <v>0.07302941924672444</v>
+      </c>
+      <c r="G89">
+        <v>-0.01872750048507216</v>
+      </c>
+      <c r="H89">
+        <v>0.02046319611087887</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.0647570881422294</v>
+        <v>-0.08239417850864651</v>
       </c>
       <c r="C90">
-        <v>0.0551216253669802</v>
+        <v>0.09704216406905238</v>
       </c>
       <c r="D90">
-        <v>-0.2834712893404532</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2821084122175399</v>
+      </c>
+      <c r="E90">
+        <v>-0.05100292708678612</v>
+      </c>
+      <c r="F90">
+        <v>0.02936047857101633</v>
+      </c>
+      <c r="G90">
+        <v>0.0254207049321455</v>
+      </c>
+      <c r="H90">
+        <v>-0.0112777649842282</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.08900739738920685</v>
+        <v>-0.09005893370445282</v>
       </c>
       <c r="C91">
-        <v>0.04823534375555848</v>
+        <v>0.02407079060722835</v>
       </c>
       <c r="D91">
-        <v>0.01445736436889174</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.03278179271430347</v>
+      </c>
+      <c r="E91">
+        <v>-0.007528327952624475</v>
+      </c>
+      <c r="F91">
+        <v>0.001935678776645915</v>
+      </c>
+      <c r="G91">
+        <v>-0.01528871348472959</v>
+      </c>
+      <c r="H91">
+        <v>0.09049192578480827</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.06747511386623878</v>
+        <v>-0.0825923011204303</v>
       </c>
       <c r="C92">
-        <v>0.06174672389679425</v>
+        <v>0.1104784343114049</v>
       </c>
       <c r="D92">
-        <v>-0.3364475162500193</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.3303650168185784</v>
+      </c>
+      <c r="E92">
+        <v>-0.05084195028645356</v>
+      </c>
+      <c r="F92">
+        <v>0.03637360866516706</v>
+      </c>
+      <c r="G92">
+        <v>0.002014824909059961</v>
+      </c>
+      <c r="H92">
+        <v>0.01874038041597948</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.05881307585744196</v>
+        <v>-0.07908459568727502</v>
       </c>
       <c r="C93">
-        <v>0.05831502730414955</v>
+        <v>0.1074103093029672</v>
       </c>
       <c r="D93">
-        <v>-0.3023272642473783</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2975898610272816</v>
+      </c>
+      <c r="E93">
+        <v>-0.02701533987564066</v>
+      </c>
+      <c r="F93">
+        <v>0.0289537467245767</v>
+      </c>
+      <c r="G93">
+        <v>0.01714217253320546</v>
+      </c>
+      <c r="H93">
+        <v>0.003284191162032357</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1342380764466005</v>
+        <v>-0.129473074989439</v>
       </c>
       <c r="C94">
-        <v>0.04298108486454737</v>
+        <v>0.008733937067352</v>
       </c>
       <c r="D94">
-        <v>0.04148214758029231</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04811954528069828</v>
+      </c>
+      <c r="E94">
+        <v>0.01889324325922992</v>
+      </c>
+      <c r="F94">
+        <v>0.01495830168489186</v>
+      </c>
+      <c r="G94">
+        <v>-0.03196723634590284</v>
+      </c>
+      <c r="H94">
+        <v>0.1092980283563528</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1213897318713066</v>
+        <v>-0.1292838828219851</v>
       </c>
       <c r="C95">
-        <v>0.01756939087293949</v>
+        <v>-0.008950441563793033</v>
       </c>
       <c r="D95">
-        <v>0.05423837315778871</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.05752698591057104</v>
+      </c>
+      <c r="E95">
+        <v>-0.006100549459592131</v>
+      </c>
+      <c r="F95">
+        <v>0.04990030332530384</v>
+      </c>
+      <c r="G95">
+        <v>0.02306960436518642</v>
+      </c>
+      <c r="H95">
+        <v>-0.09880057622268636</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.2196598545046685</v>
+        <v>-0.194860820125498</v>
       </c>
       <c r="C97">
-        <v>0.03503183177873104</v>
+        <v>-0.01698747989176401</v>
       </c>
       <c r="D97">
-        <v>-0.09540693936362903</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.06808768139103134</v>
+      </c>
+      <c r="E97">
+        <v>0.07062903992482675</v>
+      </c>
+      <c r="F97">
+        <v>-0.9360304806502107</v>
+      </c>
+      <c r="G97">
+        <v>0.03864278962732421</v>
+      </c>
+      <c r="H97">
+        <v>-0.01939494706177229</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2428974045493216</v>
+        <v>-0.2738420540085976</v>
       </c>
       <c r="C98">
-        <v>0.05018463446322118</v>
+        <v>0.01079252765431951</v>
       </c>
       <c r="D98">
-        <v>0.0117419197501912</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.0428685605796232</v>
+      </c>
+      <c r="E98">
+        <v>0.196478323050443</v>
+      </c>
+      <c r="F98">
+        <v>0.0443661246224731</v>
+      </c>
+      <c r="G98">
+        <v>-0.334999889059267</v>
+      </c>
+      <c r="H98">
+        <v>-0.1707881495292768</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.4054465137267055</v>
+        <v>-0.2632285198329032</v>
       </c>
       <c r="C99">
-        <v>-0.8952871342205366</v>
+        <v>-0.920626003330786</v>
       </c>
       <c r="D99">
-        <v>-0.04780420565588577</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.2130283752425925</v>
+      </c>
+      <c r="E99">
+        <v>-0.06903948972162902</v>
+      </c>
+      <c r="F99">
+        <v>0.0802602764632355</v>
+      </c>
+      <c r="G99">
+        <v>0.02277619123891286</v>
+      </c>
+      <c r="H99">
+        <v>0.0730421709904462</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.04527031440278415</v>
+        <v>-0.04730373044270712</v>
       </c>
       <c r="C101">
-        <v>0.03206366696350348</v>
+        <v>0.02355573205377413</v>
       </c>
       <c r="D101">
-        <v>0.002071389549891805</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01293328949305038</v>
+      </c>
+      <c r="E101">
+        <v>-0.0574175161233501</v>
+      </c>
+      <c r="F101">
+        <v>0.01236732515183196</v>
+      </c>
+      <c r="G101">
+        <v>0.01133541465512422</v>
+      </c>
+      <c r="H101">
+        <v>0.0694095938213016</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
